--- a/data-folder/Données_groupe_07.xlsx
+++ b/data-folder/Données_groupe_07.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données07" sheetId="2" r:id="rId1"/>
@@ -498,13 +498,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>27.21</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="B16">
         <v>96</v>
       </c>
       <c r="C16">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41.68</v>
+        <v>30.61</v>
       </c>
       <c r="B22">
         <v>71</v>
       </c>
       <c r="C22">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,24 +586,24 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>75.75</v>
+        <v>37.75</v>
       </c>
       <c r="B24">
         <v>79</v>
       </c>
       <c r="C24">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>37.950000000000003</v>
+        <v>29.32</v>
       </c>
       <c r="B25">
         <v>70</v>
       </c>
       <c r="C25">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,35 +652,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>67.959999999999994</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="B30">
         <v>79</v>
       </c>
       <c r="C30">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>78</v>
+        <v>61.39</v>
       </c>
       <c r="B31">
         <v>68</v>
       </c>
       <c r="C31">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>52.6</v>
+        <v>47.75</v>
       </c>
       <c r="B32">
         <v>65</v>
       </c>
       <c r="C32">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>92.99</v>
+        <v>56.04</v>
       </c>
       <c r="B34">
         <v>75</v>
       </c>
       <c r="C34">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8.2000000000000011</v>
+        <v>6.4399999999999995</v>
       </c>
       <c r="B41">
         <v>76</v>
       </c>
       <c r="C41">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,24 +806,24 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8.01</v>
+        <v>6.2600000000000007</v>
       </c>
       <c r="B44">
         <v>86</v>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>50.480000000000004</v>
+        <v>23.66</v>
       </c>
       <c r="B45">
         <v>82</v>
       </c>
       <c r="C45">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,13 +872,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>69.849999999999994</v>
+        <v>22.73</v>
       </c>
       <c r="B50">
         <v>87</v>
       </c>
       <c r="C50">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,24 +894,24 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>76.680000000000007</v>
+        <v>57.769999999999996</v>
       </c>
       <c r="B52">
         <v>69</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>84.48</v>
+        <v>72.850000000000009</v>
       </c>
       <c r="B53">
         <v>65</v>
       </c>
       <c r="C53">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,13 +949,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20.53</v>
+        <v>11.15</v>
       </c>
       <c r="B57">
         <v>84</v>
       </c>
       <c r="C57">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,13 +993,13 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>47.24</v>
+        <v>23.26</v>
       </c>
       <c r="B61">
         <v>81</v>
       </c>
       <c r="C61">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,13 +1015,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>27.24</v>
+        <v>21.13</v>
       </c>
       <c r="B63">
         <v>72</v>
       </c>
       <c r="C63">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
